--- a/IPGtrails4health/doc/EngSoft_II/Tabela_Tempos/Tabela_Tempos.xlsx
+++ b/IPGtrails4health/doc/EngSoft_II/Tabela_Tempos/Tabela_Tempos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MBP de Rui Windows\Desktop\PI_ESII_Git\IPGtrails4health\IPGtrails4health\doc\EngSoft_II\Tabela_Tempos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hugo\Documents\GitHub\IPGtrails4health\IPGtrails4health\doc\EngSoft_II\Tabela_Tempos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -186,22 +186,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Cor2" xfId="1" builtinId="34"/>
@@ -534,11 +534,11 @@
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -555,12 +555,14 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <v>3.5</v>
       </c>
     </row>
@@ -568,9 +570,11 @@
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>3</v>
       </c>
     </row>
@@ -578,9 +582,11 @@
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3">
+        <v>0.5</v>
+      </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>2</v>
       </c>
     </row>
@@ -588,9 +594,11 @@
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3">
+        <v>0.5</v>
+      </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>0.5</v>
       </c>
     </row>
@@ -598,15 +606,15 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <f t="shared" ref="C8:D8" si="0">SUM(C4:C7)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="10">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="7">
         <f>SUM(E4:E7)</f>
         <v>9</v>
       </c>

--- a/IPGtrails4health/doc/EngSoft_II/Tabela_Tempos/Tabela_Tempos.xlsx
+++ b/IPGtrails4health/doc/EngSoft_II/Tabela_Tempos/Tabela_Tempos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hugo\Documents\GitHub\IPGtrails4health\IPGtrails4health\doc\EngSoft_II\Tabela_Tempos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leandro Fernandes\Desktop\GitHub\IPGtrails4health\IPGtrails4health\doc\EngSoft_II\Tabela_Tempos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Atividade</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Elaborar Diagrama Casos Uso</t>
   </si>
 </sst>
 </file>
@@ -519,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA108A61-D204-4FE8-AC1A-491E5249407A}">
-  <dimension ref="B2:E8"/>
+  <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,64 +562,82 @@
         <v>9</v>
       </c>
       <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
       <c r="E4" s="6">
         <v>3.5</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="6">
-        <v>3</v>
-      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
       <c r="E6" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
       <c r="E7" s="6">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7">
-        <f t="shared" ref="C8:D8" si="0">SUM(C4:C7)</f>
-        <v>4</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <f>SUM(E4:E7)</f>
+      <c r="C9" s="7">
+        <f>SUM(C4:C8)</f>
         <v>9</v>
+      </c>
+      <c r="D9" s="7">
+        <f>SUM(D4:D8)</f>
+        <v>13</v>
+      </c>
+      <c r="E9" s="7">
+        <f>SUM(E4:E8)</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
